--- a/StructureDefinition-ext-R5-SpecimenDefinition.subject.xlsx
+++ b/StructureDefinition-ext-R5-SpecimenDefinition.subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `SpecimenDefinition.subject[x]` 0..1 `CodeableConcept, Reference(http://hl7.org/fhir/StructureDefinition/Group)`
 Following are the generation technical comments:
-Element `SpecimenDefinition.subject[x]` is mapped to FHIR R4 structure `SpecimenDefinition`, but has no target element specified.</t>
+Element `SpecimenDefinition.subject[x]` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:SpecimenDefinition</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-SpecimenDefinition.subject.xlsx
+++ b/StructureDefinition-ext-R5-SpecimenDefinition.subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `SpecimenDefinition.subject[x]` 0..1 `CodeableConcept, Reference(http://hl7.org/fhir/StructureDefinition/Group)`
 Following are the generation technical comments:
-Element `SpecimenDefinition.subject[x]` is will have a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
+Element `SpecimenDefinition.subject[x]` has a context of SpecimenDefinition based on following the parent source element upwards and mapping to `SpecimenDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-SpecimenDefinition.subject.xlsx
+++ b/StructureDefinition-ext-R5-SpecimenDefinition.subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -362,7 +362,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group)</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -702,7 +702,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.3046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-SpecimenDefinition.subject.xlsx
+++ b/StructureDefinition-ext-R5-SpecimenDefinition.subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -362,7 +362,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1)</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -702,7 +702,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.98828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.3046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
